--- a/MyAcademy/testdata/testData.xlsx
+++ b/MyAcademy/testdata/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20700" windowHeight="8310" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="11205" windowHeight="6375" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="10" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="70">
   <si>
     <t>month_Year</t>
   </si>
@@ -199,13 +199,40 @@
   </si>
   <si>
     <t>Jan</t>
+  </si>
+  <si>
+    <t>https://www.tallinksilja.com</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2018-11-06</t>
+  </si>
+  <si>
+    <t>From</t>
+  </si>
+  <si>
+    <t>To</t>
+  </si>
+  <si>
+    <t>Helsinki</t>
+  </si>
+  <si>
+    <t>Riga</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +255,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -305,10 +339,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -332,8 +370,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -1312,18 +1353,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1336,8 +1378,17 @@
       <c r="D1" t="s">
         <v>57</v>
       </c>
+      <c r="E1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1351,8 +1402,31 @@
         <v>59</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>